--- a/data/BR0010P850_color_results.xlsx
+++ b/data/BR0010P850_color_results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rm-evaluation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C31EA5-D227-4A1B-A96D-D3C5287A06AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8206F15-115C-4F0B-B61F-DF14D8682835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B5DC9484-E39E-4914-B8A6-29F3DC135AD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B5DC9484-E39E-4914-B8A6-29F3DC135AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet2 (3)'!$A$1:$J$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet2 (3)'!$A$1:$J$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="12">
   <si>
     <t>RMIX Batch</t>
   </si>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C3848D-2DEA-4A19-8C3F-9EF97A7E7B61}">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1391,22 +1391,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="5">
-        <v>-1.3</v>
+        <v>-0.2</v>
       </c>
       <c r="E29" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F29" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="G29" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H29" s="5">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="I29" s="5">
-        <v>-0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="J29" s="5">
         <v>98</v>
@@ -1414,351 +1414,351 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>57212</v>
+        <v>63837</v>
       </c>
       <c r="B30" s="4">
-        <v>57222</v>
+        <v>64315</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="E30" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F30" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="G30" s="5">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="H30" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I30" s="5">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="J30" s="5">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>63837</v>
+        <v>63903</v>
       </c>
       <c r="B31" s="4">
-        <v>64315</v>
+        <v>64318</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="5">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="E31" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F31" s="5">
         <v>-0.6</v>
       </c>
       <c r="G31" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="H31" s="5">
         <v>-0.2</v>
       </c>
       <c r="I31" s="5">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="J31" s="5">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>63903</v>
+        <v>63904</v>
       </c>
       <c r="B32" s="4">
-        <v>64318</v>
+        <v>64319</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="5">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E32" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F32" s="5">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="G32" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I32" s="5">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="J32" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>63904</v>
+        <v>63905</v>
       </c>
       <c r="B33" s="4">
-        <v>64319</v>
+        <v>64320</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E33" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>-1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="5">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>63905</v>
+        <v>63906</v>
       </c>
       <c r="B34" s="4">
-        <v>64320</v>
+        <v>64321</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="5">
         <v>0.4</v>
       </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>-0.1</v>
-      </c>
       <c r="G34" s="5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H34" s="5">
         <v>0.1</v>
       </c>
       <c r="I34" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J34" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>63906</v>
+        <v>63907</v>
       </c>
       <c r="B35" s="4">
-        <v>64321</v>
+        <v>64322</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="5">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F35" s="5">
-        <v>0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="G35" s="5">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H35" s="5">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I35" s="5">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="J35" s="5">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>63907</v>
+        <v>64144</v>
       </c>
       <c r="B36" s="4">
-        <v>64322</v>
+        <v>64323</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="5">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="E36" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F36" s="5">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="G36" s="5">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H36" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I36" s="5">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="J36" s="5">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>64144</v>
+        <v>64145</v>
       </c>
       <c r="B37" s="4">
-        <v>64323</v>
+        <v>64324</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="5">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E37" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H37" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I37" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="J37" s="5">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>64145</v>
+        <v>64146</v>
       </c>
       <c r="B38" s="4">
-        <v>64324</v>
+        <v>64325</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="5">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G38" s="5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H38" s="5">
         <v>-0.1</v>
       </c>
       <c r="I38" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="J38" s="5">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>64146</v>
+        <v>64147</v>
       </c>
       <c r="B39" s="4">
-        <v>64325</v>
+        <v>64326</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="5">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="E39" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F39" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="G39" s="5">
         <v>0.6</v>
       </c>
       <c r="H39" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I39" s="5">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="J39" s="5">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>64147</v>
+        <v>64148</v>
       </c>
       <c r="B40" s="4">
-        <v>64326</v>
+        <v>64327</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="5">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E40" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G40" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H40" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I40" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="J40" s="5">
         <v>95</v>
@@ -1766,74 +1766,74 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>64148</v>
+        <v>64149</v>
       </c>
       <c r="B41" s="4">
-        <v>64327</v>
+        <v>64328</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="5">
-        <v>0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F41" s="5">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="G41" s="5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="I41" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="J41" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>64149</v>
+        <v>65139</v>
       </c>
       <c r="B42" s="4">
-        <v>64328</v>
+        <v>65175</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="5">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E42" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="F42" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="H42" s="5">
         <v>-0.7</v>
       </c>
-      <c r="G42" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="5">
-        <v>-0.4</v>
-      </c>
       <c r="I42" s="5">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="J42" s="5">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>65139</v>
+        <v>65136</v>
       </c>
       <c r="B43" s="4">
-        <v>65175</v>
+        <v>65176</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
@@ -1842,339 +1842,339 @@
         <v>-0.8</v>
       </c>
       <c r="E43" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F43" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G43" s="5">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H43" s="5">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="I43" s="5">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="J43" s="5">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>65136</v>
+        <v>65138</v>
       </c>
       <c r="B44" s="4">
-        <v>65176</v>
+        <v>65177</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="5">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E44" s="5">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F44" s="5">
-        <v>-0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G44" s="5">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H44" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I44" s="5">
-        <v>-0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J44" s="5">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>65138</v>
+        <v>65135</v>
       </c>
       <c r="B45" s="4">
-        <v>65177</v>
+        <v>65178</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="5">
-        <v>0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="E45" s="5">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F45" s="5">
-        <v>1.1000000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="G45" s="5">
-        <v>1.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H45" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I45" s="5">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="J45" s="5">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>65135</v>
+        <v>65167</v>
       </c>
       <c r="B46" s="4">
-        <v>65178</v>
+        <v>65179</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="5">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G46" s="5">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H46" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I46" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="J46" s="5">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>65167</v>
+        <v>65460</v>
       </c>
       <c r="B47" s="4">
-        <v>65179</v>
+        <v>65463</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="5">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
       </c>
       <c r="F47" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G47" s="5">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="H47" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="5">
         <v>-0.3</v>
       </c>
       <c r="J47" s="5">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>65460</v>
+        <v>65461</v>
       </c>
       <c r="B48" s="4">
-        <v>65463</v>
+        <v>65464</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="5">
-        <v>-0.7</v>
+        <v>-1.9</v>
       </c>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F48" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="G48" s="5">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="H48" s="5">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="I48" s="5">
-        <v>-0.3</v>
+        <v>-1.3</v>
       </c>
       <c r="J48" s="5">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>65461</v>
+        <v>65603</v>
       </c>
       <c r="B49" s="4">
-        <v>65464</v>
+        <v>65619</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="5">
-        <v>-1.9</v>
+        <v>-0.3</v>
       </c>
       <c r="E49" s="5">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F49" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="G49" s="5">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H49" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="I49" s="5">
-        <v>-1.3</v>
+        <v>-0.3</v>
       </c>
       <c r="J49" s="5">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>65603</v>
+        <v>65602</v>
       </c>
       <c r="B50" s="4">
-        <v>65619</v>
+        <v>65620</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E50" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F50" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G50" s="5">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="H50" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="J50" s="5">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>65602</v>
+        <v>65610</v>
       </c>
       <c r="B51" s="4">
-        <v>65620</v>
+        <v>65621</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="5">
-        <v>-0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E51" s="5">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F51" s="5">
-        <v>-0.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G51" s="5">
-        <v>-0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H51" s="5">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="I51" s="5">
-        <v>-0.1</v>
+        <v>1.2</v>
       </c>
       <c r="J51" s="5">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>65610</v>
+        <v>65636</v>
       </c>
       <c r="B52" s="4">
-        <v>65621</v>
+        <v>65660</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="5">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E52" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="F52" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="G52" s="5">
         <v>0.3</v>
       </c>
-      <c r="F52" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G52" s="5">
-        <v>2.7</v>
-      </c>
       <c r="H52" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="I52" s="5">
-        <v>1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="J52" s="5">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>65636</v>
+        <v>65637</v>
       </c>
       <c r="B53" s="4">
-        <v>65660</v>
+        <v>65661</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="F53" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="G53" s="5">
         <v>0.4</v>
       </c>
-      <c r="E53" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="F53" s="5">
-        <v>-0.3</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.3</v>
-      </c>
       <c r="H53" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I53" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="J53" s="5">
         <v>97</v>
@@ -2182,214 +2182,214 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>65637</v>
+        <v>65763</v>
       </c>
       <c r="B54" s="4">
-        <v>65661</v>
+        <v>65808</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="E54" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G54" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H54" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I54" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>65763</v>
+        <v>65764</v>
       </c>
       <c r="B55" s="4">
-        <v>65808</v>
+        <v>65809</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="5">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F55" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G55" s="5">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="H55" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I55" s="5">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="J55" s="5">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>65764</v>
+        <v>65765</v>
       </c>
       <c r="B56" s="4">
-        <v>65809</v>
+        <v>65810</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="5">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="E56" s="5">
-        <v>-0.2</v>
+        <v>-1.6</v>
       </c>
       <c r="F56" s="5">
-        <v>-0.3</v>
+        <v>-1.6</v>
       </c>
       <c r="G56" s="5">
-        <v>-0.4</v>
+        <v>4.3</v>
       </c>
       <c r="H56" s="5">
-        <v>-0.2</v>
+        <v>-2</v>
       </c>
       <c r="I56" s="5">
-        <v>-0.6</v>
+        <v>-1.9</v>
       </c>
       <c r="J56" s="5">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>65765</v>
+        <v>65912</v>
       </c>
       <c r="B57" s="4">
-        <v>65810</v>
+        <v>65921</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="5">
-        <v>-2.5</v>
+        <v>-0.4</v>
       </c>
       <c r="E57" s="5">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="G57" s="5">
-        <v>4.3</v>
+        <v>-0.5</v>
       </c>
       <c r="H57" s="5">
-        <v>-2</v>
+        <v>-0.1</v>
       </c>
       <c r="I57" s="5">
-        <v>-1.9</v>
+        <v>-0.1</v>
       </c>
       <c r="J57" s="5">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>65912</v>
+        <v>65913</v>
       </c>
       <c r="B58" s="4">
-        <v>65921</v>
+        <v>65922</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="5">
-        <v>-0.4</v>
+        <v>1.2</v>
       </c>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F58" s="5">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="G58" s="5">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H58" s="5">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="I58" s="5">
-        <v>-0.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="J58" s="5">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>65913</v>
+        <v>65914</v>
       </c>
       <c r="B59" s="4">
-        <v>65922</v>
+        <v>65923</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="5">
-        <v>1.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E59" s="5">
         <v>-0.2</v>
       </c>
       <c r="F59" s="5">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="G59" s="5">
-        <v>1.9</v>
+        <v>-0.2</v>
       </c>
       <c r="H59" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="I59" s="5">
-        <v>-1.1000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="J59" s="5">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>65914</v>
+        <v>66018</v>
       </c>
       <c r="B60" s="4">
-        <v>65923</v>
+        <v>66042</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="5">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="E60" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F60" s="5">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="G60" s="5">
         <v>-0.2</v>
@@ -2398,18 +2398,18 @@
         <v>-0.1</v>
       </c>
       <c r="I60" s="5">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="J60" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>66018</v>
+        <v>66022</v>
       </c>
       <c r="B61" s="4">
-        <v>66042</v>
+        <v>66043</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>3</v>
@@ -2418,62 +2418,62 @@
         <v>-0.6</v>
       </c>
       <c r="E61" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F61" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G61" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="H61" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I61" s="5">
         <v>-0.4</v>
       </c>
       <c r="J61" s="5">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>66022</v>
+        <v>66023</v>
       </c>
       <c r="B62" s="4">
-        <v>66043</v>
+        <v>66044</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="F62" s="5">
         <v>-0.6</v>
       </c>
-      <c r="E62" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="F62" s="5">
-        <v>-0.3</v>
-      </c>
       <c r="G62" s="5">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="H62" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I62" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="J62" s="5">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>66023</v>
+        <v>66024</v>
       </c>
       <c r="B63" s="4">
-        <v>66044</v>
+        <v>66045</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>3</v>
@@ -2485,16 +2485,16 @@
         <v>-0.1</v>
       </c>
       <c r="F63" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="G63" s="5">
         <v>-0.4</v>
       </c>
       <c r="H63" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="J63" s="5">
         <v>103</v>
@@ -2502,80 +2502,80 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>66024</v>
+        <v>66147</v>
       </c>
       <c r="B64" s="4">
-        <v>66045</v>
+        <v>66178</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E64" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F64" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G64" s="5">
-        <v>-0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H64" s="5">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="I64" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="J64" s="5">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>66147</v>
+        <v>66148</v>
       </c>
       <c r="B65" s="4">
-        <v>66178</v>
+        <v>66179</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="5">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="E65" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F65" s="5">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="G65" s="5">
-        <v>1.8</v>
+        <v>-0.3</v>
       </c>
       <c r="H65" s="5">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="J65" s="5">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <v>66148</v>
+        <v>66150</v>
       </c>
       <c r="B66" s="4">
-        <v>66179</v>
+        <v>66180</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="5">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="E66" s="5">
         <v>-0.2</v>
@@ -2584,461 +2584,461 @@
         <v>-0.5</v>
       </c>
       <c r="G66" s="5">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="H66" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="I66" s="5">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="J66" s="5">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
-        <v>66150</v>
+        <v>66151</v>
       </c>
       <c r="B67" s="4">
-        <v>66180</v>
+        <v>66181</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="5">
-        <v>-0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="E67" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F67" s="5">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G67" s="5">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="H67" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="I67" s="5">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="J67" s="5">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <v>66151</v>
+        <v>66339</v>
       </c>
       <c r="B68" s="4">
-        <v>66181</v>
+        <v>66352</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="5">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E68" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F68" s="5">
         <v>-0.2</v>
       </c>
       <c r="G68" s="5">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H68" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I68" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="J68" s="5">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
-        <v>66339</v>
+        <v>66340</v>
       </c>
       <c r="B69" s="4">
-        <v>66352</v>
+        <v>66353</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="5">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E69" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H69" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I69" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="J69" s="5">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <v>66340</v>
+        <v>66341</v>
       </c>
       <c r="B70" s="4">
-        <v>66353</v>
+        <v>66354</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F70" s="5">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G70" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H70" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I70" s="5">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="J70" s="5">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
-        <v>66341</v>
+        <v>66342</v>
       </c>
       <c r="B71" s="4">
-        <v>66354</v>
+        <v>66355</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="5">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="E71" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F71" s="5">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="G71" s="5">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="H71" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I71" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="J71" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <v>66342</v>
+        <v>66552</v>
       </c>
       <c r="B72" s="4">
-        <v>66355</v>
+        <v>66589</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F72" s="5">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="G72" s="5">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="H72" s="5">
         <v>-0.1</v>
       </c>
       <c r="I72" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="J72" s="5">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
-        <v>66552</v>
+        <v>66554</v>
       </c>
       <c r="B73" s="4">
-        <v>66589</v>
+        <v>66590</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
       </c>
       <c r="F73" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G73" s="5">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="H73" s="5">
         <v>-0.1</v>
       </c>
       <c r="I73" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="J73" s="5">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <v>66554</v>
+        <v>66556</v>
       </c>
       <c r="B74" s="4">
-        <v>66590</v>
+        <v>66592</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="5">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E74" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F74" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G74" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="H74" s="5">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I74" s="5">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J74" s="5">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
-        <v>66556</v>
+        <v>66686</v>
       </c>
       <c r="B75" s="4">
-        <v>66592</v>
+        <v>66735</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="5">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="E75" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F75" s="5">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="G75" s="5">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H75" s="5">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="I75" s="5">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="J75" s="5">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>66686</v>
+        <v>66687</v>
       </c>
       <c r="B76" s="4">
-        <v>66735</v>
+        <v>66736</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="E76" s="5">
         <v>-0.2</v>
       </c>
       <c r="F76" s="5">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="G76" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H76" s="5">
         <v>-0.2</v>
       </c>
       <c r="I76" s="5">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="J76" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
-        <v>66687</v>
+        <v>66688</v>
       </c>
       <c r="B77" s="4">
-        <v>66736</v>
+        <v>66737</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E77" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="G77" s="5">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H77" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I77" s="5">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J77" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <v>66688</v>
+        <v>66689</v>
       </c>
       <c r="B78" s="4">
-        <v>66737</v>
+        <v>66738</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="5">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F78" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="G78" s="5">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H78" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I78" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="J78" s="5">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
-        <v>66689</v>
+        <v>66877</v>
       </c>
       <c r="B79" s="4">
-        <v>66738</v>
+        <v>66901</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="5">
-        <v>-0.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E79" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F79" s="5">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="G79" s="5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H79" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I79" s="5">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="J79" s="5">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <v>66877</v>
+        <v>66878</v>
       </c>
       <c r="B80" s="4">
-        <v>66901</v>
+        <v>66902</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="5">
-        <v>-1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="E80" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F80" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H80" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="I80" s="5">
         <v>-0.5</v>
-      </c>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>-0.3</v>
-      </c>
-      <c r="I80" s="5">
-        <v>-0.6</v>
       </c>
       <c r="J80" s="5">
         <v>99</v>
@@ -3046,10 +3046,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
-        <v>66878</v>
+        <v>66879</v>
       </c>
       <c r="B81" s="4">
-        <v>66902</v>
+        <v>66903</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>3</v>
@@ -3064,7 +3064,7 @@
         <v>-0.1</v>
       </c>
       <c r="G81" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="5">
         <v>-0.3</v>
@@ -3073,132 +3073,132 @@
         <v>-0.5</v>
       </c>
       <c r="J81" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
-        <v>66879</v>
+        <v>66880</v>
       </c>
       <c r="B82" s="4">
-        <v>66903</v>
+        <v>66904</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="5">
-        <v>-1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="E82" s="5">
         <v>-0.2</v>
       </c>
       <c r="F82" s="5">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="G82" s="5">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="H82" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="I82" s="5">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="J82" s="5">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
-        <v>66880</v>
+        <v>66946</v>
       </c>
       <c r="B83" s="4">
-        <v>66904</v>
+        <v>67029</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="5">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="E83" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F83" s="5">
         <v>-0.4</v>
       </c>
       <c r="G83" s="5">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H83" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I83" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="J83" s="5">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
-        <v>66946</v>
+        <v>66981</v>
       </c>
       <c r="B84" s="4">
-        <v>67029</v>
+        <v>67034</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="5">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E84" s="5">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F84" s="5">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G84" s="5">
         <v>0.4</v>
       </c>
       <c r="H84" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I84" s="5">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J84" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
-        <v>66981</v>
+        <v>67219</v>
       </c>
       <c r="B85" s="4">
-        <v>67034</v>
+        <v>67247</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E85" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H85" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I85" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J85" s="5">
         <v>98</v>
@@ -3206,63 +3206,63 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
-        <v>67219</v>
+        <v>67220</v>
       </c>
       <c r="B86" s="4">
-        <v>67247</v>
+        <v>67248</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E86" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F86" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G86" s="5">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H86" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I86" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="5">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
-        <v>67220</v>
+        <v>67221</v>
       </c>
       <c r="B87" s="4">
-        <v>67248</v>
+        <v>67249</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E87" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G87" s="5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H87" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I87" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="J87" s="5">
         <v>95</v>
@@ -3270,10 +3270,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
-        <v>67221</v>
+        <v>67222</v>
       </c>
       <c r="B88" s="4">
-        <v>67249</v>
+        <v>67250</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>3</v>
@@ -3285,176 +3285,176 @@
         <v>0</v>
       </c>
       <c r="F88" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G88" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H88" s="5">
         <v>-0.1</v>
       </c>
       <c r="I88" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="J88" s="5">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
-        <v>67222</v>
+        <v>67624</v>
       </c>
       <c r="B89" s="4">
-        <v>67250</v>
+        <v>2955</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="5">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E89" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F89" s="5">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G89" s="5">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H89" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I89" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="J89" s="5">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <v>67624</v>
+        <v>67625</v>
       </c>
       <c r="B90" s="4">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="E90" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F90" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G90" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I90" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="J90" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
-        <v>67625</v>
+        <v>67873</v>
       </c>
       <c r="B91" s="4">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="5">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E91" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F91" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G91" s="5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H91" s="5">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="I91" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J91" s="5">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
-        <v>67873</v>
+        <v>68088</v>
       </c>
       <c r="B92" s="4">
-        <v>2957</v>
+        <v>3043</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="5">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E92" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F92" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G92" s="5">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="I92" s="5">
         <v>-0.1</v>
       </c>
       <c r="J92" s="5">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
-        <v>68088</v>
+        <v>68089</v>
       </c>
       <c r="B93" s="4">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="5">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="E93" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F93" s="5">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="G93" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H93" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I93" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J93" s="5">
         <v>100</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
-        <v>68089</v>
+        <v>68090</v>
       </c>
       <c r="B94" s="4">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>3</v>
@@ -3474,42 +3474,42 @@
         <v>-0.6</v>
       </c>
       <c r="E94" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F94" s="5">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="G94" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H94" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I94" s="5">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="J94" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
-        <v>68090</v>
+        <v>68091</v>
       </c>
       <c r="B95" s="4">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E95" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F95" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G95" s="5">
         <v>-0.2</v>
@@ -3518,7 +3518,7 @@
         <v>-0.2</v>
       </c>
       <c r="I95" s="5">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="J95" s="5">
         <v>101</v>
@@ -3526,16 +3526,16 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
-        <v>68091</v>
+        <v>68404</v>
       </c>
       <c r="B96" s="4">
-        <v>3046</v>
+        <v>3081</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E96" s="5">
         <v>-0.1</v>
@@ -3544,7 +3544,7 @@
         <v>-0.3</v>
       </c>
       <c r="G96" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H96" s="5">
         <v>-0.2</v>
@@ -3553,350 +3553,350 @@
         <v>-0.4</v>
       </c>
       <c r="J96" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
-        <v>68404</v>
+        <v>68405</v>
       </c>
       <c r="B97" s="4">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="5">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="E97" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G97" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H97" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I97" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="J97" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
-        <v>68405</v>
+        <v>68406</v>
       </c>
       <c r="B98" s="4">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="5">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
       <c r="F98" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G98" s="5">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H98" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I98" s="5">
         <v>-0.2</v>
       </c>
       <c r="J98" s="5">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
-        <v>68406</v>
+        <v>68628</v>
       </c>
       <c r="B99" s="4">
-        <v>3083</v>
+        <v>3615</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="5">
-        <v>-0.1</v>
+        <v>3.3</v>
       </c>
       <c r="E99" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F99" s="5">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G99" s="5">
-        <v>-0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H99" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="I99" s="5">
-        <v>-0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J99" s="5">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
-        <v>68628</v>
+        <v>68629</v>
       </c>
       <c r="B100" s="4">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="5">
-        <v>3.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E100" s="5">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F100" s="5">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="G100" s="5">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H100" s="5">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I100" s="5">
-        <v>1.1000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="J100" s="5">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
-        <v>68629</v>
+        <v>68630</v>
       </c>
       <c r="B101" s="4">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="5">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="E101" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F101" s="5">
         <v>-0.5</v>
       </c>
       <c r="G101" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H101" s="5">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="I101" s="5">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="J101" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
-        <v>68630</v>
+        <v>68631</v>
       </c>
       <c r="B102" s="4">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="5">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E102" s="5">
         <v>-0.3</v>
       </c>
       <c r="F102" s="5">
-        <v>-0.5</v>
+        <v>-1.3</v>
       </c>
       <c r="G102" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H102" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="I102" s="5">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="J102" s="5">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
-        <v>68631</v>
+        <v>13597</v>
       </c>
       <c r="B103" s="4">
-        <v>3619</v>
+        <v>13631</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="5">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="E103" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F103" s="5">
-        <v>-1.3</v>
+        <v>-0.5</v>
       </c>
       <c r="G103" s="5">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="H103" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I103" s="5">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="J103" s="5">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
-        <v>13597</v>
+        <v>13598</v>
       </c>
       <c r="B104" s="4">
-        <v>13631</v>
+        <v>13632</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="5">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="E104" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F104" s="5">
         <v>-0.5</v>
       </c>
       <c r="G104" s="5">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I104" s="5">
         <v>-0.6</v>
       </c>
       <c r="J104" s="5">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
-        <v>13598</v>
+        <v>13599</v>
       </c>
       <c r="B105" s="4">
-        <v>13632</v>
+        <v>13633</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="5">
-        <v>-0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E105" s="5">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F105" s="5">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G105" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H105" s="5">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I105" s="5">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J105" s="5">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
-        <v>13599</v>
+        <v>13600</v>
       </c>
       <c r="B106" s="4">
-        <v>13633</v>
+        <v>13630</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="5">
-        <v>1.1000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="E106" s="5">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="F106" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="G106" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H106" s="5">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="I106" s="5">
-        <v>0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="J106" s="5">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
-        <v>13600</v>
+        <v>14763</v>
       </c>
       <c r="B107" s="4">
-        <v>13630</v>
+        <v>14798</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="5">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="E107" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F107" s="5">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="G107" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H107" s="5">
         <v>-0.4</v>
@@ -3905,239 +3905,239 @@
         <v>-0.7</v>
       </c>
       <c r="J107" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
-        <v>14763</v>
+        <v>14765</v>
       </c>
       <c r="B108" s="4">
-        <v>14798</v>
+        <v>14799</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="5">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="E108" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="F108" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H108" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G108" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H108" s="5">
-        <v>-0.4</v>
-      </c>
       <c r="I108" s="5">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="J108" s="5">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
-        <v>14765</v>
+        <v>14766</v>
       </c>
       <c r="B109" s="4">
-        <v>14799</v>
+        <v>14800</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="5">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="E109" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F109" s="5">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="G109" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H109" s="5">
         <v>-0.5</v>
       </c>
       <c r="I109" s="5">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="J109" s="5">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
-        <v>14766</v>
+        <v>14767</v>
       </c>
       <c r="B110" s="4">
-        <v>14800</v>
+        <v>14801</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="5">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="E110" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F110" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="G110" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H110" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="I110" s="5">
         <v>-0.5</v>
       </c>
-      <c r="I110" s="5">
-        <v>-0.3</v>
-      </c>
       <c r="J110" s="5">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
-        <v>14767</v>
+        <v>15556</v>
       </c>
       <c r="B111" s="4">
-        <v>14801</v>
+        <v>15561</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="5">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="E111" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F111" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="G111" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H111" s="5">
         <v>-0.3</v>
       </c>
       <c r="I111" s="5">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="J111" s="5">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
-        <v>15556</v>
+        <v>15557</v>
       </c>
       <c r="B112" s="4">
-        <v>15561</v>
+        <v>15560</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="5">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="E112" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F112" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G112" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H112" s="5">
         <v>-0.3</v>
       </c>
       <c r="I112" s="5">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="J112" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
-        <v>15557</v>
+        <v>16203</v>
       </c>
       <c r="B113" s="4">
-        <v>15560</v>
+        <v>16253</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="5">
-        <v>-0.8</v>
+        <v>0.1</v>
       </c>
       <c r="E113" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F113" s="5">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G113" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H113" s="5">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I113" s="5">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J113" s="5">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
-        <v>16203</v>
+        <v>16204</v>
       </c>
       <c r="B114" s="4">
-        <v>16253</v>
+        <v>16254</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="5">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="E114" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F114" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G114" s="5">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="H114" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="J114" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
-        <v>16204</v>
+        <v>18751</v>
       </c>
       <c r="B115" s="4">
-        <v>16254</v>
+        <v>18967</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>3</v>
@@ -4146,179 +4146,179 @@
         <v>-0.5</v>
       </c>
       <c r="E115" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F115" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="G115" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="H115" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I115" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="J115" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
-        <v>18751</v>
+        <v>19365</v>
       </c>
       <c r="B116" s="4">
-        <v>18967</v>
+        <v>19390</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="5">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E116" s="5">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="F116" s="5">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G116" s="5">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H116" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="5">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J116" s="5">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
-        <v>19365</v>
+        <v>19689</v>
       </c>
       <c r="B117" s="4">
-        <v>19390</v>
+        <v>19391</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="5">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E117" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F117" s="5">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="G117" s="5">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="H117" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I117" s="5">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="J117" s="5">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
-        <v>19689</v>
+        <v>19690</v>
       </c>
       <c r="B118" s="4">
-        <v>19391</v>
+        <v>19709</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G118" s="5">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H118" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I118" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="J118" s="5">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
-        <v>19690</v>
+        <v>19364</v>
       </c>
       <c r="B119" s="4">
-        <v>19709</v>
+        <v>19710</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E119" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F119" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G119" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H119" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I119" s="5">
         <v>0.1</v>
       </c>
       <c r="J119" s="5">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
-        <v>19364</v>
+        <v>20401</v>
       </c>
       <c r="B120" s="4">
-        <v>19710</v>
+        <v>20422</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E120" s="5">
         <v>-0.1</v>
       </c>
       <c r="F120" s="5">
-        <v>0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="G120" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H120" s="5">
         <v>-0.2</v>
       </c>
       <c r="I120" s="5">
-        <v>0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="J120" s="5">
         <v>97</v>
@@ -4326,150 +4326,150 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
-        <v>20401</v>
+        <v>20580</v>
       </c>
       <c r="B121" s="4">
-        <v>20422</v>
+        <v>20598</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="E121" s="5">
         <v>-0.1</v>
       </c>
       <c r="F121" s="5">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="G121" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H121" s="5">
         <v>-0.2</v>
       </c>
       <c r="I121" s="5">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="J121" s="5">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
-        <v>20580</v>
+        <v>20581</v>
       </c>
       <c r="B122" s="4">
-        <v>20598</v>
+        <v>20599</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="5">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E122" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F122" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G122" s="5">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="H122" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I122" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J122" s="5">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
-        <v>20581</v>
+        <v>20964</v>
       </c>
       <c r="B123" s="4">
-        <v>20599</v>
+        <v>21029</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E123" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="G123" s="5">
-        <v>-0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H123" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I123" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J123" s="5">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
-        <v>20964</v>
+        <v>20967</v>
       </c>
       <c r="B124" s="4">
-        <v>21029</v>
+        <v>21030</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E124" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F124" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G124" s="5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H124" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I124" s="5">
         <v>-0.1</v>
       </c>
       <c r="J124" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
-        <v>20967</v>
+        <v>21005</v>
       </c>
       <c r="B125" s="4">
-        <v>21030</v>
+        <v>21027</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E125" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F125" s="5">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G125" s="5">
         <v>0.9</v>
@@ -4478,7 +4478,7 @@
         <v>-0.1</v>
       </c>
       <c r="I125" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="J125" s="5">
         <v>94</v>
@@ -4486,106 +4486,106 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
-        <v>21005</v>
+        <v>22024</v>
       </c>
       <c r="B126" s="4">
-        <v>21027</v>
+        <v>22061</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E126" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F126" s="5">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="G126" s="5">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H126" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
-        <v>22024</v>
+        <v>22026</v>
       </c>
       <c r="B127" s="4">
-        <v>22061</v>
+        <v>22062</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="5">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E127" s="5">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F127" s="5">
-        <v>-0.5</v>
+        <v>1.3</v>
       </c>
       <c r="G127" s="5">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H127" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I127" s="5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J127" s="5">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
-        <v>22026</v>
+        <v>22319</v>
       </c>
       <c r="B128" s="4">
-        <v>22062</v>
+        <v>22337</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="5">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="E128" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>1.3</v>
+        <v>-0.3</v>
       </c>
       <c r="G128" s="5">
-        <v>1.8</v>
+        <v>-0.1</v>
       </c>
       <c r="H128" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I128" s="5">
-        <v>1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J128" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
-        <v>22319</v>
+        <v>22324</v>
       </c>
       <c r="B129" s="4">
-        <v>22337</v>
+        <v>22338</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>3</v>
@@ -4600,24 +4600,24 @@
         <v>-0.3</v>
       </c>
       <c r="G129" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="H129" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I129" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
-        <v>22324</v>
+        <v>22810</v>
       </c>
       <c r="B130" s="4">
-        <v>22338</v>
+        <v>22840</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>3</v>
@@ -4629,269 +4629,269 @@
         <v>0</v>
       </c>
       <c r="F130" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G130" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H130" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J130" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
-        <v>22810</v>
+        <v>22811</v>
       </c>
       <c r="B131" s="4">
-        <v>22840</v>
+        <v>22841</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="5">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="E131" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F131" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="5">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H131" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I131" s="5">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J131" s="5">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
-        <v>22811</v>
+        <v>22813</v>
       </c>
       <c r="B132" s="4">
-        <v>22841</v>
+        <v>22842</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="5">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="E132" s="5">
+        <v>0</v>
+      </c>
+      <c r="F132" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="G132" s="5">
         <v>0.2</v>
       </c>
-      <c r="F132" s="5">
-        <v>0</v>
-      </c>
-      <c r="G132" s="5">
-        <v>-0.2</v>
-      </c>
       <c r="H132" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I132" s="5">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J132" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
-        <v>22813</v>
+        <v>22817</v>
       </c>
       <c r="B133" s="4">
-        <v>22842</v>
+        <v>22839</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="5">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G133" s="5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H133" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I133" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="5">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
-        <v>22817</v>
+        <v>23654</v>
       </c>
       <c r="B134" s="4">
-        <v>22839</v>
+        <v>23675</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E134" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F134" s="5">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G134" s="5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="I134" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J134" s="5">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
-        <v>23654</v>
+        <v>23655</v>
       </c>
       <c r="B135" s="4">
-        <v>23675</v>
+        <v>23676</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F135" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="G135" s="5">
         <v>0.3</v>
       </c>
-      <c r="E135" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F135" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G135" s="5">
-        <v>0</v>
-      </c>
       <c r="H135" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I135" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J135" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
-        <v>23655</v>
+        <v>23656</v>
       </c>
       <c r="B136" s="4">
-        <v>23676</v>
+        <v>23677</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D136" s="5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E136" s="5">
         <v>0.1</v>
       </c>
       <c r="F136" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G136" s="5">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="H136" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I136" s="5">
         <v>0</v>
       </c>
       <c r="J136" s="5">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
-        <v>23656</v>
+        <v>23657</v>
       </c>
       <c r="B137" s="4">
-        <v>23677</v>
+        <v>23678</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="E137" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="F137" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="G137" s="5">
         <v>0.2</v>
       </c>
-      <c r="E137" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F137" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="G137" s="5">
-        <v>-0.1</v>
-      </c>
       <c r="H137" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I137" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J137" s="5">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
-        <v>23657</v>
+        <v>24164</v>
       </c>
       <c r="B138" s="4">
-        <v>23678</v>
+        <v>24181</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D138" s="5">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E138" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F138" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G138" s="5">
         <v>0.2</v>
       </c>
       <c r="H138" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I138" s="5">
         <v>-0.1</v>
@@ -4902,25 +4902,25 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
-        <v>24164</v>
+        <v>24165</v>
       </c>
       <c r="B139" s="4">
-        <v>24181</v>
+        <v>24182</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E139" s="5">
         <v>0.1</v>
       </c>
       <c r="F139" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G139" s="5">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H139" s="5">
         <v>0</v>
@@ -4929,350 +4929,350 @@
         <v>-0.1</v>
       </c>
       <c r="J139" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
-        <v>24165</v>
+        <v>24167</v>
       </c>
       <c r="B140" s="4">
-        <v>24182</v>
+        <v>24230</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E140" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F140" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G140" s="5">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H140" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I140" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J140" s="5">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
-        <v>24167</v>
+        <v>24221</v>
       </c>
       <c r="B141" s="4">
-        <v>24230</v>
+        <v>24231</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D141" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E141" s="5">
         <v>-0.1</v>
       </c>
       <c r="F141" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G141" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H141" s="5">
         <v>-0.2</v>
       </c>
       <c r="I141" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="J141" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
-        <v>24221</v>
+        <v>24781</v>
       </c>
       <c r="B142" s="4">
-        <v>24231</v>
+        <v>24829</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D142" s="5">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E142" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F142" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G142" s="5">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="H142" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I142" s="5">
         <v>-0.2</v>
       </c>
       <c r="J142" s="5">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
-        <v>24781</v>
+        <v>24782</v>
       </c>
       <c r="B143" s="4">
-        <v>24829</v>
+        <v>24830</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="5">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
       </c>
       <c r="F143" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G143" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H143" s="5">
         <v>0</v>
       </c>
       <c r="I143" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J143" s="5">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
-        <v>24782</v>
+        <v>24783</v>
       </c>
       <c r="B144" s="4">
-        <v>24830</v>
+        <v>24831</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="5">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
       </c>
       <c r="F144" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G144" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="H144" s="5">
         <v>0</v>
       </c>
       <c r="I144" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="J144" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
-        <v>24783</v>
+        <v>24784</v>
       </c>
       <c r="B145" s="4">
-        <v>24831</v>
+        <v>24828</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="5">
-        <v>-0.5</v>
+        <v>1.2</v>
       </c>
       <c r="E145" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F145" s="5">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="G145" s="5">
-        <v>-0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H145" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I145" s="5">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="J145" s="5">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
-        <v>24784</v>
+        <v>25312</v>
       </c>
       <c r="B146" s="4">
-        <v>24828</v>
+        <v>25319</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="5">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="E146" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F146" s="5">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G146" s="5">
-        <v>1.1000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="H146" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="I146" s="5">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="J146" s="5">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
-        <v>25312</v>
+        <v>25313</v>
       </c>
       <c r="B147" s="4">
-        <v>25319</v>
+        <v>25320</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E147" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F147" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G147" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I147" s="5">
         <v>0.1</v>
       </c>
       <c r="J147" s="5">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
-        <v>25313</v>
+        <v>25314</v>
       </c>
       <c r="B148" s="4">
-        <v>25320</v>
+        <v>25321</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E148" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F148" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="G148" s="5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H148" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I148" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="J148" s="5">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
-        <v>25314</v>
+        <v>25542</v>
       </c>
       <c r="B149" s="4">
-        <v>25321</v>
+        <v>25548</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="5">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E149" s="5">
         <v>-0.1</v>
       </c>
       <c r="F149" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="G149" s="5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H149" s="5">
         <v>-0.1</v>
       </c>
       <c r="I149" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J149" s="5">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
-        <v>25542</v>
+        <v>25543</v>
       </c>
       <c r="B150" s="4">
-        <v>25548</v>
+        <v>25549</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="5">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E150" s="5">
         <v>-0.1</v>
       </c>
       <c r="F150" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="G150" s="5">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="H150" s="5">
         <v>-0.1</v>
@@ -5281,36 +5281,36 @@
         <v>-0.3</v>
       </c>
       <c r="J150" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
-        <v>25543</v>
+        <v>25544</v>
       </c>
       <c r="B151" s="4">
-        <v>25549</v>
+        <v>25550</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="E151" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G151" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="5">
         <v>-0.1</v>
       </c>
       <c r="I151" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="J151" s="5">
         <v>100</v>
@@ -5318,10 +5318,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
-        <v>25544</v>
+        <v>25545</v>
       </c>
       <c r="B152" s="4">
-        <v>25550</v>
+        <v>25547</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>3</v>
@@ -5330,68 +5330,68 @@
         <v>0.1</v>
       </c>
       <c r="E152" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F152" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="G152" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H152" s="5">
         <v>-0.1</v>
       </c>
       <c r="I152" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J152" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
-        <v>25545</v>
+        <v>29192</v>
       </c>
       <c r="B153" s="4">
-        <v>25547</v>
+        <v>29826</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="5">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="E153" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F153" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G153" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H153" s="5">
         <v>-0.1</v>
       </c>
       <c r="I153" s="5">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J153" s="5">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
-        <v>29192</v>
+        <v>29198</v>
       </c>
       <c r="B154" s="4">
-        <v>29826</v>
+        <v>29827</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D154" s="5">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E154" s="5">
         <v>0.1</v>
@@ -5403,234 +5403,234 @@
         <v>0.8</v>
       </c>
       <c r="H154" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I154" s="5">
         <v>0.2</v>
       </c>
       <c r="J154" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
-        <v>29198</v>
+        <v>31394</v>
       </c>
       <c r="B155" s="4">
-        <v>29827</v>
+        <v>31400</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="5">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="E155" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F155" s="5">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G155" s="5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H155" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I155" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J155" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
-        <v>31394</v>
+        <v>31395</v>
       </c>
       <c r="B156" s="4">
-        <v>31400</v>
+        <v>31401</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="5">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="E156" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F156" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G156" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H156" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I156" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J156" s="5">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
-        <v>31395</v>
+        <v>31398</v>
       </c>
       <c r="B157" s="4">
-        <v>31401</v>
+        <v>31402</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D157" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G157" s="5">
         <v>0.3</v>
       </c>
-      <c r="E157" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F157" s="5">
-        <v>0</v>
-      </c>
-      <c r="G157" s="5">
-        <v>0</v>
-      </c>
       <c r="H157" s="5">
         <v>0.1</v>
       </c>
       <c r="I157" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J157" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
-        <v>31398</v>
+        <v>31399</v>
       </c>
       <c r="B158" s="4">
-        <v>31402</v>
+        <v>31403</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D158" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E158" s="5">
         <v>0.1</v>
       </c>
       <c r="F158" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G158" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H158" s="5">
         <v>0.1</v>
       </c>
       <c r="I158" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J158" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
-        <v>31399</v>
+        <v>31716</v>
       </c>
       <c r="B159" s="4">
-        <v>31403</v>
+        <v>31785</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E159" s="5">
         <v>0.1</v>
       </c>
       <c r="F159" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G159" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="H159" s="5">
         <v>0.1</v>
       </c>
       <c r="I159" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J159" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
-        <v>31716</v>
+        <v>31718</v>
       </c>
       <c r="B160" s="4">
-        <v>31785</v>
+        <v>31786</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D160" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E160" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F160" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G160" s="5">
         <v>-0.2</v>
       </c>
       <c r="H160" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I160" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J160" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
-        <v>31718</v>
+        <v>31719</v>
       </c>
       <c r="B161" s="4">
-        <v>31786</v>
+        <v>31787</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E161" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F161" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G161" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="H161" s="5">
         <v>0.2</v>
       </c>
       <c r="I161" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J161" s="5">
         <v>102</v>
@@ -5638,48 +5638,48 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
-        <v>31719</v>
+        <v>32091</v>
       </c>
       <c r="B162" s="4">
-        <v>31787</v>
+        <v>32123</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E162" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F162" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="H162" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I162" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J162" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
-        <v>32091</v>
+        <v>32092</v>
       </c>
       <c r="B163" s="4">
-        <v>32123</v>
+        <v>32124</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E163" s="5">
         <v>0.2</v>
@@ -5688,45 +5688,45 @@
         <v>0</v>
       </c>
       <c r="G163" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H163" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I163" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J163" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
-        <v>32092</v>
+        <v>32093</v>
       </c>
       <c r="B164" s="4">
-        <v>32124</v>
+        <v>32125</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E164" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
       </c>
       <c r="G164" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H164" s="5">
         <v>0.2</v>
       </c>
       <c r="I164" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J164" s="5">
         <v>102</v>
@@ -5734,234 +5734,234 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
-        <v>32093</v>
+        <v>32095</v>
       </c>
       <c r="B165" s="4">
-        <v>32125</v>
+        <v>32126</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="5">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="E165" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F165" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G165" s="5">
-        <v>-0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H165" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I165" s="5">
         <v>0.2</v>
       </c>
       <c r="J165" s="5">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
-        <v>32095</v>
+        <v>32911</v>
       </c>
       <c r="B166" s="4">
-        <v>32126</v>
+        <v>32957</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="5">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F166" s="5">
-        <v>-0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G166" s="5">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H166" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I166" s="5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J166" s="5">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
-        <v>32911</v>
+        <v>32912</v>
       </c>
       <c r="B167" s="4">
-        <v>32957</v>
+        <v>32958</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="5">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="E167" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F167" s="5">
+        <v>1</v>
+      </c>
+      <c r="G167" s="5">
         <v>0.7</v>
-      </c>
-      <c r="G167" s="5">
-        <v>0.2</v>
       </c>
       <c r="H167" s="5">
         <v>0.2</v>
       </c>
       <c r="I167" s="5">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J167" s="5">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
-        <v>32912</v>
+        <v>32913</v>
       </c>
       <c r="B168" s="4">
-        <v>32958</v>
+        <v>32959</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="5">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E168" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F168" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G168" s="5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H168" s="5">
         <v>0.2</v>
       </c>
       <c r="I168" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J168" s="5">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
-        <v>32913</v>
+        <v>32914</v>
       </c>
       <c r="B169" s="4">
-        <v>32959</v>
+        <v>32960</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E169" s="5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F169" s="5">
-        <v>1.1000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="G169" s="5">
-        <v>0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="H169" s="5">
         <v>0.2</v>
       </c>
       <c r="I169" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" s="5">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
-        <v>32914</v>
+        <v>33355</v>
       </c>
       <c r="B170" s="4">
-        <v>32960</v>
+        <v>35352</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="5">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F170" s="5">
-        <v>-0.3</v>
+        <v>0.9</v>
       </c>
       <c r="G170" s="5">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H170" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" s="5">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
-        <v>33355</v>
+        <v>34435</v>
       </c>
       <c r="B171" s="4">
-        <v>35352</v>
+        <v>35353</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D171" s="5">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="E171" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F171" s="5">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="G171" s="5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H171" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I171" s="5">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="J171" s="5">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
-        <v>34435</v>
+        <v>34436</v>
       </c>
       <c r="B172" s="4">
-        <v>35353</v>
+        <v>35354</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>3</v>
@@ -5973,176 +5973,176 @@
         <v>0</v>
       </c>
       <c r="F172" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G172" s="5">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="H172" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I172" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J172" s="5">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
-        <v>34436</v>
+        <v>34437</v>
       </c>
       <c r="B173" s="4">
-        <v>35354</v>
+        <v>35355</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D173" s="5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E173" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F173" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G173" s="5">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H173" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I173" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J173" s="5">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
-        <v>34437</v>
+        <v>34438</v>
       </c>
       <c r="B174" s="4">
-        <v>35355</v>
+        <v>35356</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="5">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E174" s="5">
         <v>-0.1</v>
       </c>
       <c r="F174" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G174" s="5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H174" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I174" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="J174" s="5">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
-        <v>34438</v>
+        <v>36102</v>
       </c>
       <c r="B175" s="4">
-        <v>35356</v>
+        <v>36126</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E175" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F175" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G175" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H175" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I175" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J175" s="5">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
-        <v>36102</v>
+        <v>36103</v>
       </c>
       <c r="B176" s="4">
-        <v>36126</v>
+        <v>36127</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E176" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G176" s="5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H176" s="5">
         <v>0</v>
       </c>
       <c r="I176" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J176" s="5">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
-        <v>36103</v>
+        <v>36104</v>
       </c>
       <c r="B177" s="4">
-        <v>36127</v>
+        <v>36128</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F177" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G177" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H177" s="5">
         <v>0</v>
       </c>
       <c r="I177" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J177" s="5">
         <v>97</v>
@@ -6150,234 +6150,234 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
-        <v>36104</v>
+        <v>36106</v>
       </c>
       <c r="B178" s="4">
-        <v>36128</v>
+        <v>36125</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F178" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G178" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H178" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I178" s="5">
         <v>0.3</v>
       </c>
-      <c r="E178" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F178" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G178" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H178" s="5">
-        <v>0</v>
-      </c>
-      <c r="I178" s="5">
-        <v>0.1</v>
-      </c>
       <c r="J178" s="5">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
-        <v>36106</v>
+        <v>36960</v>
       </c>
       <c r="B179" s="4">
-        <v>36125</v>
+        <v>36975</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E179" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G179" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H179" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="I179" s="5">
         <v>0.7</v>
       </c>
-      <c r="H179" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I179" s="5">
-        <v>0.3</v>
-      </c>
       <c r="J179" s="5">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
-        <v>36960</v>
+        <v>36962</v>
       </c>
       <c r="B180" s="4">
-        <v>36975</v>
+        <v>36976</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E180" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F180" s="5">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G180" s="5">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H180" s="5">
         <v>-0.2</v>
       </c>
       <c r="I180" s="5">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="J180" s="5">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
-        <v>36962</v>
+        <v>36963</v>
       </c>
       <c r="B181" s="4">
-        <v>36976</v>
+        <v>37033</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E181" s="5">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F181" s="5">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="G181" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H181" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I181" s="5">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J181" s="5">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
-        <v>36963</v>
+        <v>37338</v>
       </c>
       <c r="B182" s="4">
-        <v>37033</v>
+        <v>37359</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E182" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F182" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G182" s="5">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H182" s="5">
         <v>0</v>
       </c>
       <c r="I182" s="5">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J182" s="5">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
-        <v>37338</v>
+        <v>37340</v>
       </c>
       <c r="B183" s="4">
-        <v>37359</v>
+        <v>37360</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="5">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E183" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F183" s="5">
         <v>0.1</v>
       </c>
       <c r="G183" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H183" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I183" s="5">
         <v>0.1</v>
       </c>
       <c r="J183" s="5">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
-        <v>37340</v>
+        <v>37657</v>
       </c>
       <c r="B184" s="4">
-        <v>37360</v>
+        <v>37667</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="5">
-        <v>0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="E184" s="5">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F184" s="5">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="G184" s="5">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H184" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I184" s="5">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="J184" s="5">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
-        <v>37657</v>
+        <v>37658</v>
       </c>
       <c r="B185" s="4">
-        <v>37667</v>
+        <v>37668</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>3</v>
@@ -6392,13 +6392,13 @@
         <v>-0.5</v>
       </c>
       <c r="G185" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H185" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I185" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="J185" s="5">
         <v>99</v>
@@ -6406,31 +6406,31 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
-        <v>37658</v>
+        <v>37659</v>
       </c>
       <c r="B186" s="4">
-        <v>37668</v>
+        <v>37669</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="E186" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="F186" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="G186" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H186" s="5">
         <v>-0.6</v>
       </c>
-      <c r="E186" s="5">
-        <v>-0.3</v>
-      </c>
-      <c r="F186" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="G186" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H186" s="5">
-        <v>-0.2</v>
-      </c>
       <c r="I186" s="5">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="J186" s="5">
         <v>99</v>
@@ -6438,48 +6438,48 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
-        <v>37659</v>
+        <v>37660</v>
       </c>
       <c r="B187" s="4">
-        <v>37669</v>
+        <v>37670</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D187" s="5">
-        <v>-1.4</v>
+        <v>-1</v>
       </c>
       <c r="E187" s="5">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="F187" s="5">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="G187" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H187" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="I187" s="5">
         <v>-0.6</v>
       </c>
-      <c r="I187" s="5">
-        <v>-1</v>
-      </c>
       <c r="J187" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
-        <v>37660</v>
+        <v>38051</v>
       </c>
       <c r="B188" s="4">
-        <v>37670</v>
+        <v>38098</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D188" s="5">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="E188" s="5">
         <v>-0.4</v>
@@ -6488,190 +6488,190 @@
         <v>-0.6</v>
       </c>
       <c r="G188" s="5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H188" s="5">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="I188" s="5">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="J188" s="5">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
-        <v>38051</v>
+        <v>38052</v>
       </c>
       <c r="B189" s="4">
-        <v>38098</v>
+        <v>38099</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D189" s="5">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E189" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F189" s="5">
         <v>-0.6</v>
       </c>
       <c r="G189" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H189" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="I189" s="5">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="J189" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
-        <v>38052</v>
+        <v>38053</v>
       </c>
       <c r="B190" s="4">
-        <v>38099</v>
+        <v>38100</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D190" s="5">
-        <v>0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="E190" s="5">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="F190" s="5">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="G190" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H190" s="5">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="I190" s="5">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="J190" s="5">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
-        <v>38053</v>
+        <v>38054</v>
       </c>
       <c r="B191" s="4">
-        <v>38100</v>
+        <v>38101</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D191" s="5">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="E191" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="F191" s="5">
         <v>-0.5</v>
       </c>
-      <c r="F191" s="5">
-        <v>-0.7</v>
-      </c>
       <c r="G191" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="I191" s="5">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="J191" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
-        <v>38054</v>
+        <v>38403</v>
       </c>
       <c r="B192" s="4">
-        <v>38101</v>
+        <v>38438</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D192" s="5">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E192" s="5">
         <v>-0.3</v>
       </c>
       <c r="F192" s="5">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="G192" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H192" s="5">
         <v>-0.3</v>
       </c>
       <c r="I192" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="J192" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
-        <v>38403</v>
+        <v>38404</v>
       </c>
       <c r="B193" s="4">
-        <v>38438</v>
+        <v>38439</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D193" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="E193" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="F193" s="5">
         <v>-0.5</v>
       </c>
-      <c r="E193" s="5">
-        <v>-0.3</v>
-      </c>
-      <c r="F193" s="5">
-        <v>-0.4</v>
-      </c>
       <c r="G193" s="5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H193" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="I193" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="J193" s="5">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
-        <v>38404</v>
+        <v>38402</v>
       </c>
       <c r="B194" s="4">
-        <v>38439</v>
+        <v>38728</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D194" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E194" s="5">
         <v>-0.4</v>
@@ -6680,56 +6680,56 @@
         <v>-0.5</v>
       </c>
       <c r="G194" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H194" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="I194" s="5">
         <v>-0.4</v>
       </c>
       <c r="J194" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
-        <v>38402</v>
+        <v>39195</v>
       </c>
       <c r="B195" s="4">
-        <v>38728</v>
+        <v>39220</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D195" s="5">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="E195" s="5">
         <v>-0.4</v>
       </c>
       <c r="F195" s="5">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="G195" s="5">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="H195" s="5">
         <v>-0.3</v>
       </c>
       <c r="I195" s="5">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="J195" s="5">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
-        <v>39195</v>
+        <v>39196</v>
       </c>
       <c r="B196" s="4">
-        <v>39220</v>
+        <v>39221</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>3</v>
@@ -6738,13 +6738,13 @@
         <v>-0.8</v>
       </c>
       <c r="E196" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F196" s="5">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="G196" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H196" s="5">
         <v>-0.3</v>
@@ -6753,47 +6753,47 @@
         <v>-0.6</v>
       </c>
       <c r="J196" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
-        <v>39196</v>
+        <v>39197</v>
       </c>
       <c r="B197" s="4">
-        <v>39221</v>
+        <v>39222</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D197" s="5">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="E197" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F197" s="5">
         <v>-0.4</v>
       </c>
       <c r="G197" s="5">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="H197" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I197" s="5">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="J197" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
-        <v>39197</v>
+        <v>39198</v>
       </c>
       <c r="B198" s="4">
-        <v>39222</v>
+        <v>39223</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>3</v>
@@ -6805,97 +6805,97 @@
         <v>-0.2</v>
       </c>
       <c r="F198" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="G198" s="5">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H198" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I198" s="5">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="J198" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
-        <v>39198</v>
+        <v>39422</v>
       </c>
       <c r="B199" s="4">
-        <v>39223</v>
+        <v>39461</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D199" s="5">
-        <v>-0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E199" s="5">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F199" s="5">
         <v>-0.2</v>
       </c>
       <c r="G199" s="5">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H199" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I199" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="J199" s="5">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
-        <v>39422</v>
+        <v>39423</v>
       </c>
       <c r="B200" s="4">
-        <v>39461</v>
+        <v>39456</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D200" s="5">
-        <v>1.1000000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="E200" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F200" s="5">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="G200" s="5">
-        <v>1.2</v>
+        <v>-0.4</v>
       </c>
       <c r="H200" s="5">
         <v>-0.1</v>
       </c>
       <c r="I200" s="5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="J200" s="5">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
-        <v>39423</v>
+        <v>39426</v>
       </c>
       <c r="B201" s="4">
-        <v>39456</v>
+        <v>39457</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D201" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="E201" s="5">
         <v>-0.2</v>
@@ -6904,248 +6904,248 @@
         <v>-0.6</v>
       </c>
       <c r="G201" s="5">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="H201" s="5">
         <v>-0.1</v>
       </c>
       <c r="I201" s="5">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="J201" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
-        <v>39426</v>
+        <v>39428</v>
       </c>
       <c r="B202" s="4">
-        <v>39457</v>
+        <v>39458</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D202" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E202" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F202" s="5">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G202" s="5">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H202" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="I202" s="5">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J202" s="5">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
-        <v>39428</v>
+        <v>39429</v>
       </c>
       <c r="B203" s="4">
-        <v>39458</v>
+        <v>39459</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D203" s="5">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="E203" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F203" s="5">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G203" s="5">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="H203" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I203" s="5">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="J203" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
-        <v>39429</v>
+        <v>39430</v>
       </c>
       <c r="B204" s="4">
-        <v>39459</v>
+        <v>39460</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D204" s="5">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E204" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F204" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G204" s="5">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H204" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I204" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="J204" s="5">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
-        <v>39430</v>
+        <v>39914</v>
       </c>
       <c r="B205" s="4">
-        <v>39460</v>
+        <v>39961</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D205" s="5">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="E205" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F205" s="5">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="G205" s="5">
-        <v>0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="H205" s="5">
         <v>-0.1</v>
       </c>
       <c r="I205" s="5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="J205" s="5">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
-        <v>39914</v>
+        <v>39915</v>
       </c>
       <c r="B206" s="4">
-        <v>39961</v>
+        <v>39962</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D206" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E206" s="5">
         <v>-0.2</v>
       </c>
       <c r="F206" s="5">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="G206" s="5">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="H206" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I206" s="5">
         <v>-0.5</v>
       </c>
       <c r="J206" s="5">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
-        <v>39915</v>
+        <v>39916</v>
       </c>
       <c r="B207" s="4">
-        <v>39962</v>
+        <v>39963</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D207" s="5">
-        <v>-0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="E207" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F207" s="5">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="G207" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="H207" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I207" s="5">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="J207" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
-        <v>39916</v>
+        <v>39917</v>
       </c>
       <c r="B208" s="4">
-        <v>39963</v>
+        <v>39964</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D208" s="5">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="E208" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F208" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G208" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H208" s="5">
         <v>-0.1</v>
       </c>
       <c r="I208" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="J208" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
-        <v>39917</v>
+        <v>39924</v>
       </c>
       <c r="B209" s="4">
-        <v>39964</v>
+        <v>39965</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>3</v>
@@ -7154,94 +7154,94 @@
         <v>-0.6</v>
       </c>
       <c r="E209" s="5">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F209" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="G209" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="H209" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I209" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="J209" s="5">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
-        <v>39924</v>
+        <v>39926</v>
       </c>
       <c r="B210" s="4">
-        <v>39965</v>
+        <v>39966</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D210" s="5">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="E210" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F210" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="G210" s="5">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H210" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I210" s="5">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="J210" s="5">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
-        <v>39926</v>
+        <v>40350</v>
       </c>
       <c r="B211" s="4">
-        <v>39966</v>
+        <v>40362</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="5">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="E211" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F211" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G211" s="5">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H211" s="5">
         <v>-0.1</v>
       </c>
       <c r="I211" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="J211" s="5">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
-        <v>40350</v>
+        <v>40355</v>
       </c>
       <c r="B212" s="4">
-        <v>40362</v>
+        <v>40364</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>3</v>
@@ -7250,51 +7250,51 @@
         <v>-0.6</v>
       </c>
       <c r="E212" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F212" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G212" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="H212" s="5">
         <v>-0.1</v>
       </c>
       <c r="I212" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="J212" s="5">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
-        <v>40355</v>
+        <v>40356</v>
       </c>
       <c r="B213" s="4">
-        <v>40364</v>
+        <v>40367</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D213" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E213" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F213" s="5">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="G213" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H213" s="5">
         <v>-0.1</v>
       </c>
       <c r="I213" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="J213" s="5">
         <v>100</v>
@@ -7302,80 +7302,80 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
-        <v>40356</v>
+        <v>40357</v>
       </c>
       <c r="B214" s="4">
-        <v>40367</v>
+        <v>40368</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D214" s="5">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E214" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F214" s="5">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="G214" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="H214" s="5">
         <v>-0.1</v>
       </c>
       <c r="I214" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J214" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
-        <v>40357</v>
+        <v>40691</v>
       </c>
       <c r="B215" s="4">
-        <v>40368</v>
+        <v>40703</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D215" s="5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E215" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F215" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G215" s="5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H215" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I215" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J215" s="5">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
-        <v>40691</v>
+        <v>40692</v>
       </c>
       <c r="B216" s="4">
-        <v>40703</v>
+        <v>40704</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D216" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E216" s="5">
         <v>0</v>
@@ -7384,45 +7384,45 @@
         <v>0</v>
       </c>
       <c r="G216" s="5">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H216" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I216" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
-        <v>40692</v>
+        <v>40693</v>
       </c>
       <c r="B217" s="4">
-        <v>40704</v>
+        <v>40705</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D217" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E217" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F217" s="5">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G217" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H217" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I217" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J217" s="5">
         <v>97</v>
@@ -7430,112 +7430,112 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
-        <v>40693</v>
+        <v>40694</v>
       </c>
       <c r="B218" s="4">
-        <v>40705</v>
+        <v>40706</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D218" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E218" s="5">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F218" s="5">
         <v>-0.2</v>
       </c>
       <c r="G218" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H218" s="5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I218" s="5">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="J218" s="5">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
-        <v>40694</v>
+        <v>41775</v>
       </c>
       <c r="B219" s="4">
-        <v>40706</v>
+        <v>41792</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D219" s="5">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="E219" s="5">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F219" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G219" s="5">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="H219" s="5">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I219" s="5">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="J219" s="5">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B220" s="4">
-        <v>41792</v>
+        <v>41794</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D220" s="5">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E220" s="5">
         <v>0</v>
       </c>
       <c r="F220" s="5">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G220" s="5">
         <v>-0.1</v>
       </c>
       <c r="H220" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I220" s="5">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="J220" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B221" s="4">
-        <v>41794</v>
+        <v>41795</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D221" s="5">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E221" s="5">
         <v>0</v>
@@ -7544,47 +7544,15 @@
         <v>0.1</v>
       </c>
       <c r="G221" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H221" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I221" s="5">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J221" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A222" s="4">
-        <v>41780</v>
-      </c>
-      <c r="B222" s="4">
-        <v>41795</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D222" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="E222" s="5">
-        <v>0</v>
-      </c>
-      <c r="F222" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G222" s="5">
-        <v>0</v>
-      </c>
-      <c r="H222" s="5">
-        <v>-0.1</v>
-      </c>
-      <c r="I222" s="5">
-        <v>-0.1</v>
-      </c>
-      <c r="J222" s="5">
         <v>100</v>
       </c>
     </row>
